--- a/target/classes/comentarios.xlsx
+++ b/target/classes/comentarios.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="391">
   <si>
     <t xml:space="preserve">Las alitas, hamburguesas y la cerveza están bastante ricas.</t>
   </si>
@@ -1092,6 +1092,108 @@
   </si>
   <si>
     <t xml:space="preserve">La atención aquí es buenísima, además de que no hay que esperar tanto para ingresar al lugar.</t>
+  </si>
+  <si>
+    <t>Siempre que puedo como ahí, su comida es muy buena.</t>
+  </si>
+  <si>
+    <t>Excelente comida, suficiente para los tragones como yo</t>
+  </si>
+  <si>
+    <t>Super atención, las costillas y la margarita con chela son lo mejor!!</t>
+  </si>
+  <si>
+    <t>Me encantó, sobre todo las hamburguesas y las margaritas!</t>
+  </si>
+  <si>
+    <t>Excelente lugar no pierdan la oportunidad de ir, todo súper rico y la zona esta bonita, además hay promociones en días específicos</t>
+  </si>
+  <si>
+    <t>Limpio, excelente atención y buena comida</t>
+  </si>
+  <si>
+    <t>Riquísimo las costillas , el elote  y la cerveza buen lugar para comer lo recomiendo ampliamente</t>
+  </si>
+  <si>
+    <t>Muy buen ambiente para ver el fútbol y cualquier deporte... muy buenas promociones !!!</t>
+  </si>
+  <si>
+    <t>Increíbles margaritas  y la comida rica</t>
+  </si>
+  <si>
+    <t>Tienen muy buen servicio y es un buen lugar para venir y ver un partido con amigos y familiares</t>
+  </si>
+  <si>
+    <t>Buen lugar para botanear con los amigos.</t>
+  </si>
+  <si>
+    <t>Excelente todo, servicio, higiene, todo con calidad y calidez</t>
+  </si>
+  <si>
+    <t>Cómo en ningún otro lugar, atención, limpieza y una cocina que me ha llevado a volver varias veces.</t>
+  </si>
+  <si>
+    <t>Excelente lugar buena atención y la comida tiene buen sabor</t>
+  </si>
+  <si>
+    <t>De todos los Chili's a los que he ido este es donde mejor me atienden.</t>
+  </si>
+  <si>
+    <t>Está muy limpio y atienden bien. La comida muy buena.</t>
+  </si>
+  <si>
+    <t>Buen lugar para compartir con los amigos</t>
+  </si>
+  <si>
+    <t>Buen lugar para ver algún evento deportivo</t>
+  </si>
+  <si>
+    <t>Un restaurante de gran sabor y variedad en sus deliciosos platillos, hamburguesas, alias, costillas, dedos de queso, ensaladas, cervezas, refrescos de refil, postres, etc.</t>
+  </si>
+  <si>
+    <t>Muy buen servicio, excelente atención, y muy rica la comida</t>
+  </si>
+  <si>
+    <t>Excelente atención del personal, amabilidad, empaticoa. Comida muy rica y buena presentación. Altamente recomendable.</t>
+  </si>
+  <si>
+    <t>Excelente trato al cliente de parte de todos los empleados</t>
+  </si>
+  <si>
+    <t>Excelente lugar para unas cervezas con los amigos o una platica amena con una hermosa mujer!!!!</t>
+  </si>
+  <si>
+    <t>Me encanta el sabor de su comida, la atención y el servicio super eficiente.  Ubicación buena y sin mayores contratiempos.</t>
+  </si>
+  <si>
+    <t>Gran ambiente y gran sabor en los alimentos</t>
+  </si>
+  <si>
+    <t>Buen servicio, comida y ambiente</t>
+  </si>
+  <si>
+    <t>Las margaritas.....son muy buenas</t>
+  </si>
+  <si>
+    <t>Tiene mucha variedad y un gran también te, perfecto para ir en familia!</t>
+  </si>
+  <si>
+    <t>Buen servicio, buenos platos y es muy tranquilo el lugar</t>
+  </si>
+  <si>
+    <t>Excelente servicio y alimentos deliciosos!</t>
+  </si>
+  <si>
+    <t>Muy buena atención, excelente comida, buenisimos tragos</t>
+  </si>
+  <si>
+    <t>De las mejores sucursales a las que he ido, la atención del personal es increíble, siempre al pendiente de si necesitas algo. Los alimentos calientes y bien servidos. Muy recomendable</t>
+  </si>
+  <si>
+    <t>Muy buen servicio. Atención rápida.  Las hamburguesas son muy buenas y la cerveza de barril es deliciosa</t>
+  </si>
+  <si>
+    <t>Excelente atención y todo rico.</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1294,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A310"/>
+  <dimension ref="A1:A275"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A309" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A311" activeCellId="0" sqref="A311"/>
@@ -1200,7 +1302,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.45"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="8.45" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,181 +2678,6 @@
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2769,7 +2696,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
@@ -2777,253 +2704,428 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>341</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
         <v>356</v>
       </c>
     </row>
